--- a/Measurement Analysis/K15T2-Team22-Team Assignment6/EffortLog Comparation.xlsx
+++ b/Measurement Analysis/K15T2-Team22-Team Assignment6/EffortLog Comparation.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Task</t>
   </si>
@@ -46,13 +46,19 @@
   </si>
   <si>
     <t>Homework</t>
+  </si>
+  <si>
+    <t>Thanh Giang</t>
+  </si>
+  <si>
+    <t>Giang Nguyễn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +81,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,17 +112,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,122 +451,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E6" s="7">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C7" s="7">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D7" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E8" s="7">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F8" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Measurement Analysis/K15T2-Team22-Team Assignment6/EffortLog Comparation.xlsx
+++ b/Measurement Analysis/K15T2-Team22-Team Assignment6/EffortLog Comparation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Thanh Giang_EffortLog" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Giang Nguyễn</t>
+  </si>
+  <si>
+    <t>Hiệp</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Phúc</t>
   </si>
 </sst>
 </file>
@@ -132,14 +144,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -147,6 +156,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F19"/>
+  <dimension ref="A2:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,168 +479,176 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
         <v>10</v>
       </c>
-      <c r="F6" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4</v>
-      </c>
-      <c r="E15" s="7">
-        <v>6</v>
-      </c>
-      <c r="F15" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="C16" s="5">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6">
         <v>6</v>
       </c>
     </row>
@@ -633,16 +656,16 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7">
-        <v>7</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
         <v>2</v>
       </c>
     </row>
@@ -650,16 +673,16 @@
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
-        <v>5</v>
-      </c>
-      <c r="E18" s="7">
-        <v>5</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
         <v>3</v>
       </c>
     </row>
@@ -667,16 +690,446 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="C19" s="5">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5">
+        <v>6</v>
+      </c>
+      <c r="F32" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="D34" s="5">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5">
+        <v>7</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5">
+        <v>6</v>
+      </c>
+      <c r="F40" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5">
+        <v>8</v>
+      </c>
+      <c r="F41" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5">
+        <v>9</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4</v>
+      </c>
+      <c r="F42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5">
+        <v>6</v>
+      </c>
+      <c r="F48" s="5">
+        <v>6</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5">
+        <v>6</v>
+      </c>
+      <c r="D49" s="5">
+        <v>7</v>
+      </c>
+      <c r="E49" s="5">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5">
+        <v>6</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5">
+        <v>5</v>
+      </c>
+      <c r="F51" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Measurement Analysis/K15T2-Team22-Team Assignment6/EffortLog Comparation.xlsx
+++ b/Measurement Analysis/K15T2-Team22-Team Assignment6/EffortLog Comparation.xlsx
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -158,10 +158,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,10 +484,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -587,21 +591,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="10"/>
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,9 +711,10 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -780,7 +788,7 @@
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="6">
         <v>5</v>
       </c>
@@ -809,9 +817,10 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="D29" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -916,9 +925,10 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="C38" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -1023,9 +1033,11 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="C46" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="D46" s="8"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -1043,7 +1055,7 @@
       <c r="F47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -1061,7 +1073,7 @@
       <c r="F48" s="5">
         <v>6</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
@@ -1079,7 +1091,7 @@
       <c r="F49" s="5">
         <v>6</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
@@ -1097,7 +1109,7 @@
       <c r="F50" s="5">
         <v>2.5</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
@@ -1115,6 +1127,7 @@
       <c r="F51" s="5">
         <v>3</v>
       </c>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
@@ -1132,11 +1145,16 @@
       <c r="F52" s="5">
         <v>0</v>
       </c>
+      <c r="I52" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
